--- a/_CONCAT_FH_TaxiwayZulu.xlsx
+++ b/_CONCAT_FH_TaxiwayZulu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44B8B5-36B8-4D2E-B141-B5F2E3B25ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A7F8D7-C909-498B-BD94-16CF7A928EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="600" windowWidth="29070" windowHeight="19785" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="615" yWindow="720" windowWidth="29070" windowHeight="19650" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,103 +58,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Date Completed:</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Each Lot</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>This signed ITP</t>
-  </si>
-  <si>
-    <t>Project/Site Engineer</t>
-  </si>
-  <si>
-    <t>Project/Site_x000D_
-Engineer</t>
-  </si>
-  <si>
-    <t>Proof Roll</t>
-  </si>
-  <si>
-    <t>Following completion of the curing period, detailed trim and survey conformance, the Principle’s Representative will be invited to a proof roll (24 hours notice). Proof roll will be accepted if no rutting greater than 25mm is observed. Proof roll will involve using a heavy vibrating roller (in static mode)_x000D_
-Proof rolling of the subgrade will be approval to place Sub-basecourse or Basecourse. If rain falls on subgrade prior to placing next layer, a further inspection will be_x000D_
-required.</t>
-  </si>
-  <si>
-    <t>Cl3.12 Cl4.6</t>
-  </si>
-  <si>
-    <t>HP WP HP HP</t>
-  </si>
-  <si>
-    <t>Project/Site Engineer Principle’s Representative</t>
-  </si>
-  <si>
-    <t>Surface Smoothness</t>
-  </si>
-  <si>
-    <t>Each Lot every 10m</t>
-  </si>
-  <si>
-    <t>Long straight edge surface not to deviate by more than 12mm over a 3.5m long straight edge, following subgrade treatment</t>
-  </si>
-  <si>
-    <t>Cl3.16</t>
-  </si>
-  <si>
-    <t>This signed ITP_x000D_
-Results_x000D_
-Attached</t>
-  </si>
-  <si>
-    <t>Strength Testing (CBR)</t>
-  </si>
-  <si>
-    <t>Each Lot – Once per 1500m2</t>
-  </si>
-  <si>
-    <t>To exceed 20% CBR after 7 days.</t>
-  </si>
-  <si>
-    <t>Field Dry Density</t>
-  </si>
-  <si>
-    <t>Each Lot – Once per 500m2</t>
-  </si>
-  <si>
-    <t>Maximum Dry Density used is lime stabilised subgrade 100% using standard compaction.</t>
-  </si>
-  <si>
-    <t>Cl3.11 Cl3.16</t>
-  </si>
-  <si>
-    <t>Surface Level</t>
-  </si>
-  <si>
-    <t>Stabilised and compacted subgrade surface layer to_x000D_
-comply within -25mm to +0mm from specified levels.</t>
-  </si>
-  <si>
-    <t>Verify_x000D_
-Report</t>
-  </si>
-  <si>
-    <t>This signed_x000D_
-ITP_x000D_
-Results_x000D_
-Attached</t>
-  </si>
-  <si>
-    <t>SCP</t>
   </si>
 </sst>
 </file>
@@ -523,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -605,366 +511,95 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" t="s">
-        <v>11</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="N2" s="1"/>
       <c r="AC2" t="str">
         <f>A2&amp;" - "&amp;C2</f>
-        <v>4.1 - Proof Roll</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="AD2" t="str">
         <f>"Frequency - "&amp;E2</f>
-        <v>Frequency - Each Lot</v>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="AE2" t="str">
         <f>"Acceptance Criteria - "&amp;H2</f>
-        <v>Acceptance Criteria - Following completion of the curing period, detailed trim and survey conformance, the Principle’s Representative will be invited to a proof roll (24 hours notice). Proof roll will be accepted if no rutting greater than 25mm is observed. Proof roll will involve using a heavy vibrating roller (in static mode)_x000D_
-Proof rolling of the subgrade will be approval to place Sub-basecourse or Basecourse. If rain falls on subgrade prior to placing next layer, a further inspection will be_x000D_
-required.</v>
+        <v xml:space="preserve">Acceptance Criteria - </v>
       </c>
       <c r="AF2" t="str">
         <f>"Reference Documents - "&amp;N2</f>
-        <v>Reference Documents - Cl3.12 Cl4.6</v>
+        <v xml:space="preserve">Reference Documents - </v>
       </c>
       <c r="AG2" t="str">
         <f>"Inspection/Test Method - "&amp;O2</f>
-        <v>Inspection/Test Method - Verify</v>
+        <v xml:space="preserve">Inspection/Test Method - </v>
       </c>
       <c r="AH2" t="str">
         <f>"Record of conformity - "&amp;S2</f>
-        <v>Record of conformity - This signed ITP</v>
-      </c>
-      <c r="AI2" t="str">
+        <v xml:space="preserve">Record of conformity - </v>
+      </c>
+      <c r="AI2">
         <f>V2</f>
-        <v>HP WP HP HP</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="str">
         <f>"Responsibility - "&amp;X2</f>
-        <v>Responsibility - Project/Site Engineer Principle’s Representative</v>
+        <v xml:space="preserve">Responsibility - </v>
       </c>
       <c r="AK2" t="s">
         <v>0</v>
       </c>
       <c r="AM2" t="str" cm="1">
-        <f t="array" ref="AM2:AM46">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AC2:AK39)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>4.1 - Proof Roll</v>
+        <f t="array" ref="AM2:AM10">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AC2:AK39)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4.2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AC8" si="0">A3&amp;" - "&amp;C3</f>
-        <v>4.2 - Surface Smoothness</v>
-      </c>
-      <c r="AD3" t="str">
-        <f t="shared" ref="AD3:AD8" si="1">"Frequency - "&amp;E3</f>
-        <v>Frequency - Each Lot every 10m</v>
-      </c>
-      <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE8" si="2">"Acceptance Criteria - "&amp;H3</f>
-        <v>Acceptance Criteria - Long straight edge surface not to deviate by more than 12mm over a 3.5m long straight edge, following subgrade treatment</v>
-      </c>
-      <c r="AF3" t="str">
-        <f t="shared" ref="AF3:AF8" si="3">"Reference Documents - "&amp;N3</f>
-        <v>Reference Documents - Cl3.16</v>
-      </c>
-      <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG8" si="4">"Inspection/Test Method - "&amp;O3</f>
-        <v>Inspection/Test Method - Verify</v>
-      </c>
-      <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH8" si="5">"Record of conformity - "&amp;S3</f>
-        <v>Record of conformity - This signed ITP_x000D_
-Results_x000D_
-Attached</v>
-      </c>
-      <c r="AI3" t="str">
-        <f t="shared" ref="AI3:AI8" si="6">V3</f>
-        <v>TP</v>
-      </c>
-      <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ8" si="7">"Responsibility - "&amp;X3</f>
-        <v>Responsibility - Project/Site Engineer</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>0</v>
-      </c>
+      <c r="N3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="AM3" t="str">
-        <v>Frequency - Each Lot</v>
+        <v>Frequency -</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.3</v>
-      </c>
       <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC12" si="8">A4&amp;" - "&amp;C4</f>
-        <v>4.3 - Strength Testing (CBR)</v>
-      </c>
-      <c r="AD4" t="str">
-        <f t="shared" ref="AD4:AD12" si="9">"Frequency - "&amp;E4</f>
-        <v>Frequency - Each Lot – Once per 1500m2</v>
-      </c>
-      <c r="AE4" t="str">
-        <f t="shared" ref="AE4:AE12" si="10">"Acceptance Criteria - "&amp;H4</f>
-        <v>Acceptance Criteria - To exceed 20% CBR after 7 days.</v>
-      </c>
-      <c r="AF4" t="str">
-        <f t="shared" ref="AF4:AF12" si="11">"Reference Documents - "&amp;N4</f>
-        <v>Reference Documents - Cl3.16</v>
-      </c>
-      <c r="AG4" t="str">
-        <f t="shared" ref="AG4:AG12" si="12">"Inspection/Test Method - "&amp;O4</f>
-        <v>Inspection/Test Method - Verify</v>
-      </c>
-      <c r="AH4" t="str">
-        <f t="shared" ref="AH4:AH12" si="13">"Record of conformity - "&amp;S4</f>
-        <v>Record of conformity - This signed ITP_x000D_
-Results_x000D_
-Attached</v>
-      </c>
-      <c r="AI4" t="str">
-        <f t="shared" ref="AI4:AI12" si="14">V4</f>
-        <v>TP</v>
-      </c>
-      <c r="AJ4" t="str">
-        <f t="shared" ref="AJ4:AJ12" si="15">"Responsibility - "&amp;X4</f>
-        <v>Responsibility - Project/Site Engineer</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>0</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="X4" s="1"/>
       <c r="AM4" t="str">
-        <v>Acceptance Criteria - Following completion of the curing period, detailed trim and survey conformance, the Principle’s Representative will be invited to a proof roll (24 hours notice). Proof roll will be accepted if no rutting greater than 25mm is observed. Proof roll will involve using a heavy vibrating roller (in static mode)
-Proof rolling of the subgrade will be approval to place Sub-basecourse or Basecourse. If rain falls on subgrade prior to placing next layer, a further inspection will be
-required.</v>
+        <v>Acceptance Criteria -</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="K5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="8"/>
-        <v>4.4 - Field Dry Density</v>
-      </c>
-      <c r="AD5" t="str">
-        <f t="shared" si="9"/>
-        <v>Frequency - Each Lot – Once per 500m2</v>
-      </c>
-      <c r="AE5" t="str">
-        <f t="shared" si="10"/>
-        <v>Acceptance Criteria - Maximum Dry Density used is lime stabilised subgrade 100% using standard compaction.</v>
-      </c>
-      <c r="AF5" t="str">
-        <f t="shared" si="11"/>
-        <v>Reference Documents - Cl3.11 Cl3.16</v>
-      </c>
-      <c r="AG5" t="str">
-        <f t="shared" si="12"/>
-        <v>Inspection/Test Method - Verify</v>
-      </c>
-      <c r="AH5" t="str">
-        <f t="shared" si="13"/>
-        <v>Record of conformity - This signed ITP_x000D_
-Results_x000D_
-Attached</v>
-      </c>
-      <c r="AI5" t="str">
-        <f t="shared" si="14"/>
-        <v>TP</v>
-      </c>
-      <c r="AJ5" t="str">
-        <f t="shared" si="15"/>
-        <v>Responsibility - Project/Site Engineer</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>0</v>
-      </c>
+      <c r="S5" s="1"/>
       <c r="AM5" t="str">
-        <v>Reference Documents - Cl3.12 Cl4.6</v>
+        <v>Reference Documents -</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
       <c r="F6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC6" t="str">
-        <f t="shared" si="8"/>
-        <v>4.5 - Surface Level</v>
-      </c>
-      <c r="AD6" t="str">
-        <f t="shared" si="9"/>
-        <v>Frequency - Each Lot</v>
-      </c>
-      <c r="AE6" t="str">
-        <f t="shared" si="10"/>
-        <v>Acceptance Criteria - Stabilised and compacted subgrade surface layer to_x000D_
-comply within -25mm to +0mm from specified levels.</v>
-      </c>
-      <c r="AF6" t="str">
-        <f t="shared" si="11"/>
-        <v>Reference Documents - Cl3.16</v>
-      </c>
-      <c r="AG6" t="str">
-        <f t="shared" si="12"/>
-        <v>Inspection/Test Method - Verify_x000D_
-Report</v>
-      </c>
-      <c r="AH6" t="str">
-        <f t="shared" si="13"/>
-        <v>Record of conformity - This signed_x000D_
-ITP_x000D_
-Results_x000D_
-Attached</v>
-      </c>
-      <c r="AI6" t="str">
-        <f t="shared" si="14"/>
-        <v>SCP</v>
-      </c>
-      <c r="AJ6" t="str">
-        <f t="shared" si="15"/>
-        <v>Responsibility - Project/Site_x000D_
-Engineer</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>0</v>
-      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="X6" s="1"/>
       <c r="AM6" t="str">
-        <v>Inspection/Test Method - Verify</v>
+        <v>Inspection/Test Method -</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -986,7 +621,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AM7" t="str">
-        <v>Record of conformity - This signed ITP</v>
+        <v>Record of conformity -</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,8 +642,8 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AM8" t="str">
-        <v>HP WP HP HP</v>
+      <c r="AM8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,7 +665,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AM9" t="str">
-        <v>Responsibility - Project/Site Engineer Principle’s Representative</v>
+        <v>Responsibility -</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,18 +707,12 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AM11" t="str">
-        <v>4.2 - Surface Smoothness</v>
-      </c>
     </row>
     <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="AM12" t="str">
-        <v>Frequency - Each Lot every 10m</v>
-      </c>
     </row>
     <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
@@ -1091,9 +720,6 @@
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="AM13" t="str">
-        <v>Acceptance Criteria - Long straight edge surface not to deviate by more than 12mm over a 3.5m long straight edge, following subgrade treatment</v>
-      </c>
     </row>
     <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
@@ -1111,9 +737,6 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AM14" t="str">
-        <v>Reference Documents - Cl3.16</v>
-      </c>
     </row>
     <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
@@ -1132,9 +755,6 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AM15" t="str">
-        <v>Inspection/Test Method - Verify</v>
-      </c>
     </row>
     <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
@@ -1153,13 +773,8 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AM16" t="str">
-        <v>Record of conformity - This signed ITP
-Results
-Attached</v>
-      </c>
-    </row>
-    <row r="17" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1177,11 +792,8 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AM17" t="str">
-        <v>TP</v>
-      </c>
-    </row>
-    <row r="18" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1198,11 +810,8 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AM18" t="str">
-        <v>Responsibility - Project/Site Engineer</v>
-      </c>
-    </row>
-    <row r="19" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1216,11 +825,8 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AM19" t="str">
-        <v>Date Completed:</v>
-      </c>
-    </row>
-    <row r="20" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="M20" s="1"/>
@@ -1236,11 +842,8 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AM20" t="str">
-        <v>4.3 - Strength Testing (CBR)</v>
-      </c>
-    </row>
-    <row r="21" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="M21" s="1"/>
@@ -1256,35 +859,23 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AM21" t="str">
-        <v>Frequency - Each Lot – Once per 1500m2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="AM22" t="str">
-        <v>Acceptance Criteria - To exceed 20% CBR after 7 days.</v>
-      </c>
-    </row>
-    <row r="23" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="AM23" t="str">
-        <v>Reference Documents - Cl3.16</v>
-      </c>
-    </row>
-    <row r="24" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="AM24" t="str">
-        <v>Inspection/Test Method - Verify</v>
-      </c>
-    </row>
-    <row r="25" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="O25" s="1"/>
@@ -1299,13 +890,8 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AM25" t="str">
-        <v>Record of conformity - This signed ITP
-Results
-Attached</v>
-      </c>
-    </row>
-    <row r="26" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1319,117 +905,6 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AM26" t="str">
-        <v>TP</v>
-      </c>
-    </row>
-    <row r="27" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM27" t="str">
-        <v>Responsibility - Project/Site Engineer</v>
-      </c>
-    </row>
-    <row r="28" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM28" t="str">
-        <v>Date Completed:</v>
-      </c>
-    </row>
-    <row r="29" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM29" t="str">
-        <v>4.4 - Field Dry Density</v>
-      </c>
-    </row>
-    <row r="30" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM30" t="str">
-        <v>Frequency - Each Lot – Once per 500m2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM31" t="str">
-        <v>Acceptance Criteria - Maximum Dry Density used is lime stabilised subgrade 100% using standard compaction.</v>
-      </c>
-    </row>
-    <row r="32" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM32" t="str">
-        <v>Reference Documents - Cl3.11 Cl3.16</v>
-      </c>
-    </row>
-    <row r="33" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM33" t="str">
-        <v>Inspection/Test Method - Verify</v>
-      </c>
-    </row>
-    <row r="34" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM34" t="str">
-        <v>Record of conformity - This signed ITP
-Results
-Attached</v>
-      </c>
-    </row>
-    <row r="35" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM35" t="str">
-        <v>TP</v>
-      </c>
-    </row>
-    <row r="36" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM36" t="str">
-        <v>Responsibility - Project/Site Engineer</v>
-      </c>
-    </row>
-    <row r="37" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM37" t="str">
-        <v>Date Completed:</v>
-      </c>
-    </row>
-    <row r="38" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM38" t="str">
-        <v>4.5 - Surface Level</v>
-      </c>
-    </row>
-    <row r="39" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM39" t="str">
-        <v>Frequency - Each Lot</v>
-      </c>
-    </row>
-    <row r="40" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM40" t="str">
-        <v>Acceptance Criteria - Stabilised and compacted subgrade surface layer to
-comply within -25mm to +0mm from specified levels.</v>
-      </c>
-    </row>
-    <row r="41" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM41" t="str">
-        <v>Reference Documents - Cl3.16</v>
-      </c>
-    </row>
-    <row r="42" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM42" t="str">
-        <v>Inspection/Test Method - Verify
-Report</v>
-      </c>
-    </row>
-    <row r="43" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM43" t="str">
-        <v>Record of conformity - This signed
-ITP
-Results
-Attached</v>
-      </c>
-    </row>
-    <row r="44" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM44" t="str">
-        <v>SCP</v>
-      </c>
-    </row>
-    <row r="45" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM45" t="str">
-        <v>Responsibility - Project/Site
-Engineer</v>
-      </c>
-    </row>
-    <row r="46" spans="39:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AM46" t="str">
-        <v>Date Completed:</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_CONCAT_FH_TaxiwayZulu.xlsx
+++ b/_CONCAT_FH_TaxiwayZulu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A7F8D7-C909-498B-BD94-16CF7A928EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2DAA16-DDA0-48C8-9813-380DB4B6A201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="720" windowWidth="29070" windowHeight="19650" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="9795" yWindow="990" windowWidth="26775" windowHeight="17190" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
